--- a/Group Assignments/Roster.xlsx
+++ b/Group Assignments/Roster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 390\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 390\STOR390_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA43EB2-0008-4BAD-B129-2AF858475029}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD6CEF0-26D7-465F-8211-A60D86530CF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8510" yWindow="930" windowWidth="14710" windowHeight="12310" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>Williams,Abby</t>
+  </si>
+  <si>
+    <t>Championship</t>
+  </si>
+  <si>
+    <t>Playoffs Round 1</t>
+  </si>
+  <si>
+    <t>Playoffs Round 2</t>
+  </si>
+  <si>
+    <t>Gameday Speech 1</t>
+  </si>
+  <si>
+    <t>Gameday Speech 2</t>
   </si>
 </sst>
 </file>
@@ -212,13 +227,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,246 +561,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="13.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="4">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="4">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="4">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="4">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="4">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="4">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="4">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="B33" s="4">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B34" s="4">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="B39" s="4">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="4">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="B42" s="4">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="B44" s="4">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B46" s="4">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group Assignments/Roster.xlsx
+++ b/Group Assignments/Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 390\STOR390_WEBSITE\Group Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD6CEF0-26D7-465F-8211-A60D86530CF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F464A70-1694-467B-8953-15D31FDF1A3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{BC3D2666-0D07-46B4-B598-A87DA7215C9B}"/>
   </bookViews>
@@ -563,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F93BAB1-DB6F-4342-9A4B-754573C9E9A0}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
